--- a/Excel-XLSX/UN-SYR.xlsx
+++ b/Excel-XLSX/UN-SYR.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1201" uniqueCount="1201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="1202">
   <si>
     <t>﻿"page"</t>
   </si>
@@ -87,7 +87,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>V3sA8H</t>
+    <t>MlRMh1</t>
   </si>
   <si>
     <t>1978</t>
@@ -3507,7 +3507,7 @@
     <t>2024</t>
   </si>
   <si>
-    <t>1202</t>
+    <t>1228</t>
   </si>
   <si>
     <t>821</t>
@@ -3546,18 +3546,18 @@
     <t>832</t>
   </si>
   <si>
-    <t>8350</t>
-  </si>
-  <si>
-    <t>3853</t>
-  </si>
-  <si>
-    <t>18152</t>
-  </si>
-  <si>
     <t>833</t>
   </si>
   <si>
+    <t>8464</t>
+  </si>
+  <si>
+    <t>3996</t>
+  </si>
+  <si>
+    <t>17683</t>
+  </si>
+  <si>
     <t>834</t>
   </si>
   <si>
@@ -3600,18 +3600,18 @@
     <t>847</t>
   </si>
   <si>
-    <t>7414806</t>
-  </si>
-  <si>
-    <t>22725</t>
-  </si>
-  <si>
-    <t>16217034</t>
-  </si>
-  <si>
     <t>848</t>
   </si>
   <si>
+    <t>7408909</t>
+  </si>
+  <si>
+    <t>513896</t>
+  </si>
+  <si>
+    <t>16471143</t>
+  </si>
+  <si>
     <t>849</t>
   </si>
   <si>
@@ -3619,6 +3619,9 @@
   </si>
   <si>
     <t>851</t>
+  </si>
+  <si>
+    <t>852</t>
   </si>
 </sst>
 </file>
@@ -4003,7 +4006,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:V852"/>
+  <dimension ref="A1:V853"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -59815,7 +59818,7 @@
         <v>1163</v>
       </c>
       <c r="O821" s="2" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P821" s="2" t="s">
         <v>33</v>
@@ -59951,7 +59954,7 @@
         <v>101</v>
       </c>
       <c r="O823" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="P823" s="2" t="s">
         <v>33</v>
@@ -60155,7 +60158,7 @@
         <v>33</v>
       </c>
       <c r="O826" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P826" s="2" t="s">
         <v>33</v>
@@ -60264,16 +60267,16 @@
         <v>1162</v>
       </c>
       <c r="F828" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G828" s="1" t="s">
-        <v>150</v>
+        <v>399</v>
       </c>
       <c r="H828" s="1" t="s">
-        <v>151</v>
+        <v>400</v>
       </c>
       <c r="I828" s="1" t="s">
-        <v>152</v>
+        <v>400</v>
       </c>
       <c r="J828" s="2" t="s">
         <v>29</v>
@@ -60288,7 +60291,7 @@
         <v>31</v>
       </c>
       <c r="N828" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="O828" s="2" t="s">
         <v>33</v>
@@ -60332,16 +60335,16 @@
         <v>1162</v>
       </c>
       <c r="F829" s="2" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="G829" s="1" t="s">
-        <v>38</v>
+        <v>150</v>
       </c>
       <c r="H829" s="1" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="I829" s="1" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="J829" s="2" t="s">
         <v>29</v>
@@ -60356,7 +60359,7 @@
         <v>31</v>
       </c>
       <c r="N829" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="O829" s="2" t="s">
         <v>33</v>
@@ -60400,16 +60403,16 @@
         <v>1162</v>
       </c>
       <c r="F830" s="2" t="s">
-        <v>223</v>
+        <v>37</v>
       </c>
       <c r="G830" s="1" t="s">
-        <v>710</v>
+        <v>38</v>
       </c>
       <c r="H830" s="1" t="s">
-        <v>711</v>
+        <v>39</v>
       </c>
       <c r="I830" s="1" t="s">
-        <v>712</v>
+        <v>39</v>
       </c>
       <c r="J830" s="2" t="s">
         <v>29</v>
@@ -60424,7 +60427,7 @@
         <v>31</v>
       </c>
       <c r="N830" s="2" t="s">
-        <v>188</v>
+        <v>60</v>
       </c>
       <c r="O830" s="2" t="s">
         <v>33</v>
@@ -60468,16 +60471,16 @@
         <v>1162</v>
       </c>
       <c r="F831" s="2" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="G831" s="1" t="s">
-        <v>427</v>
+        <v>710</v>
       </c>
       <c r="H831" s="1" t="s">
-        <v>428</v>
+        <v>711</v>
       </c>
       <c r="I831" s="1" t="s">
-        <v>429</v>
+        <v>712</v>
       </c>
       <c r="J831" s="2" t="s">
         <v>29</v>
@@ -60492,7 +60495,7 @@
         <v>31</v>
       </c>
       <c r="N831" s="2" t="s">
-        <v>47</v>
+        <v>188</v>
       </c>
       <c r="O831" s="2" t="s">
         <v>33</v>
@@ -60536,16 +60539,16 @@
         <v>1162</v>
       </c>
       <c r="F832" s="2" t="s">
-        <v>155</v>
+        <v>236</v>
       </c>
       <c r="G832" s="1" t="s">
-        <v>156</v>
+        <v>427</v>
       </c>
       <c r="H832" s="1" t="s">
-        <v>157</v>
+        <v>428</v>
       </c>
       <c r="I832" s="1" t="s">
-        <v>157</v>
+        <v>429</v>
       </c>
       <c r="J832" s="2" t="s">
         <v>29</v>
@@ -60560,7 +60563,7 @@
         <v>31</v>
       </c>
       <c r="N832" s="2" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="O832" s="2" t="s">
         <v>33</v>
@@ -60604,16 +60607,16 @@
         <v>1162</v>
       </c>
       <c r="F833" s="2" t="s">
-        <v>48</v>
+        <v>155</v>
       </c>
       <c r="G833" s="1" t="s">
-        <v>49</v>
+        <v>156</v>
       </c>
       <c r="H833" s="1" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="I833" s="1" t="s">
-        <v>50</v>
+        <v>157</v>
       </c>
       <c r="J833" s="2" t="s">
         <v>29</v>
@@ -60628,10 +60631,10 @@
         <v>31</v>
       </c>
       <c r="N833" s="2" t="s">
-        <v>1176</v>
+        <v>139</v>
       </c>
       <c r="O833" s="2" t="s">
-        <v>1177</v>
+        <v>47</v>
       </c>
       <c r="P833" s="2" t="s">
         <v>33</v>
@@ -60646,7 +60649,7 @@
         <v>33</v>
       </c>
       <c r="T833" s="2" t="s">
-        <v>1178</v>
+        <v>33</v>
       </c>
       <c r="U833" s="1" t="s">
         <v>34</v>
@@ -60666,22 +60669,22 @@
         <v>22</v>
       </c>
       <c r="D834" s="2" t="s">
-        <v>1179</v>
+        <v>1176</v>
       </c>
       <c r="E834" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="F834" s="2" t="s">
-        <v>241</v>
+        <v>48</v>
       </c>
       <c r="G834" s="1" t="s">
-        <v>242</v>
+        <v>49</v>
       </c>
       <c r="H834" s="1" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="I834" s="1" t="s">
-        <v>243</v>
+        <v>50</v>
       </c>
       <c r="J834" s="2" t="s">
         <v>29</v>
@@ -60696,10 +60699,10 @@
         <v>31</v>
       </c>
       <c r="N834" s="2" t="s">
-        <v>85</v>
+        <v>1177</v>
       </c>
       <c r="O834" s="2" t="s">
-        <v>83</v>
+        <v>1178</v>
       </c>
       <c r="P834" s="2" t="s">
         <v>33</v>
@@ -60714,7 +60717,7 @@
         <v>33</v>
       </c>
       <c r="T834" s="2" t="s">
-        <v>33</v>
+        <v>1179</v>
       </c>
       <c r="U834" s="1" t="s">
         <v>34</v>
@@ -60740,16 +60743,16 @@
         <v>1162</v>
       </c>
       <c r="F835" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G835" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H835" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="I835" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="J835" s="2" t="s">
         <v>29</v>
@@ -60764,10 +60767,10 @@
         <v>31</v>
       </c>
       <c r="N835" s="2" t="s">
-        <v>54</v>
+        <v>83</v>
       </c>
       <c r="O835" s="2" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="P835" s="2" t="s">
         <v>33</v>
@@ -60808,16 +60811,16 @@
         <v>1162</v>
       </c>
       <c r="F836" s="2" t="s">
-        <v>69</v>
+        <v>244</v>
       </c>
       <c r="G836" s="1" t="s">
-        <v>70</v>
+        <v>245</v>
       </c>
       <c r="H836" s="1" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="I836" s="1" t="s">
-        <v>72</v>
+        <v>246</v>
       </c>
       <c r="J836" s="2" t="s">
         <v>29</v>
@@ -60832,10 +60835,10 @@
         <v>31</v>
       </c>
       <c r="N836" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="O836" s="2" t="s">
-        <v>111</v>
+        <v>33</v>
       </c>
       <c r="P836" s="2" t="s">
         <v>33</v>
@@ -60876,16 +60879,16 @@
         <v>1162</v>
       </c>
       <c r="F837" s="2" t="s">
-        <v>274</v>
+        <v>69</v>
       </c>
       <c r="G837" s="1" t="s">
-        <v>491</v>
+        <v>70</v>
       </c>
       <c r="H837" s="1" t="s">
-        <v>492</v>
+        <v>71</v>
       </c>
       <c r="I837" s="1" t="s">
-        <v>492</v>
+        <v>72</v>
       </c>
       <c r="J837" s="2" t="s">
         <v>29</v>
@@ -60900,10 +60903,10 @@
         <v>31</v>
       </c>
       <c r="N837" s="2" t="s">
-        <v>33</v>
+        <v>366</v>
       </c>
       <c r="O837" s="2" t="s">
-        <v>47</v>
+        <v>114</v>
       </c>
       <c r="P837" s="2" t="s">
         <v>33</v>
@@ -60944,16 +60947,16 @@
         <v>1162</v>
       </c>
       <c r="F838" s="2" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="G838" s="1" t="s">
-        <v>1142</v>
+        <v>491</v>
       </c>
       <c r="H838" s="1" t="s">
-        <v>1143</v>
+        <v>492</v>
       </c>
       <c r="I838" s="1" t="s">
-        <v>1144</v>
+        <v>492</v>
       </c>
       <c r="J838" s="2" t="s">
         <v>29</v>
@@ -60971,7 +60974,7 @@
         <v>33</v>
       </c>
       <c r="O838" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="P838" s="2" t="s">
         <v>33</v>
@@ -61012,16 +61015,16 @@
         <v>1162</v>
       </c>
       <c r="F839" s="2" t="s">
-        <v>93</v>
+        <v>284</v>
       </c>
       <c r="G839" s="1" t="s">
-        <v>296</v>
+        <v>1142</v>
       </c>
       <c r="H839" s="1" t="s">
-        <v>297</v>
+        <v>1143</v>
       </c>
       <c r="I839" s="1" t="s">
-        <v>298</v>
+        <v>1144</v>
       </c>
       <c r="J839" s="2" t="s">
         <v>29</v>
@@ -61039,7 +61042,7 @@
         <v>33</v>
       </c>
       <c r="O839" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="P839" s="2" t="s">
         <v>33</v>
@@ -61080,16 +61083,16 @@
         <v>1162</v>
       </c>
       <c r="F840" s="2" t="s">
-        <v>326</v>
+        <v>93</v>
       </c>
       <c r="G840" s="1" t="s">
-        <v>569</v>
+        <v>296</v>
       </c>
       <c r="H840" s="1" t="s">
-        <v>570</v>
+        <v>297</v>
       </c>
       <c r="I840" s="1" t="s">
-        <v>571</v>
+        <v>298</v>
       </c>
       <c r="J840" s="2" t="s">
         <v>29</v>
@@ -61107,7 +61110,7 @@
         <v>33</v>
       </c>
       <c r="O840" s="2" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="P840" s="2" t="s">
         <v>33</v>
@@ -61148,16 +61151,16 @@
         <v>1162</v>
       </c>
       <c r="F841" s="2" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G841" s="1" t="s">
-        <v>340</v>
+        <v>569</v>
       </c>
       <c r="H841" s="1" t="s">
-        <v>341</v>
+        <v>570</v>
       </c>
       <c r="I841" s="1" t="s">
-        <v>341</v>
+        <v>571</v>
       </c>
       <c r="J841" s="2" t="s">
         <v>29</v>
@@ -61172,10 +61175,10 @@
         <v>31</v>
       </c>
       <c r="N841" s="2" t="s">
-        <v>464</v>
+        <v>33</v>
       </c>
       <c r="O841" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="P841" s="2" t="s">
         <v>33</v>
@@ -61216,16 +61219,16 @@
         <v>1162</v>
       </c>
       <c r="F842" s="2" t="s">
-        <v>357</v>
+        <v>336</v>
       </c>
       <c r="G842" s="1" t="s">
-        <v>614</v>
+        <v>340</v>
       </c>
       <c r="H842" s="1" t="s">
-        <v>615</v>
+        <v>341</v>
       </c>
       <c r="I842" s="1" t="s">
-        <v>615</v>
+        <v>341</v>
       </c>
       <c r="J842" s="2" t="s">
         <v>29</v>
@@ -61240,10 +61243,10 @@
         <v>31</v>
       </c>
       <c r="N842" s="2" t="s">
-        <v>47</v>
+        <v>466</v>
       </c>
       <c r="O842" s="2" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="P842" s="2" t="s">
         <v>33</v>
@@ -61284,16 +61287,16 @@
         <v>1162</v>
       </c>
       <c r="F843" s="2" t="s">
-        <v>303</v>
+        <v>357</v>
       </c>
       <c r="G843" s="1" t="s">
-        <v>304</v>
+        <v>614</v>
       </c>
       <c r="H843" s="1" t="s">
-        <v>305</v>
+        <v>615</v>
       </c>
       <c r="I843" s="1" t="s">
-        <v>305</v>
+        <v>615</v>
       </c>
       <c r="J843" s="2" t="s">
         <v>29</v>
@@ -61308,7 +61311,7 @@
         <v>31</v>
       </c>
       <c r="N843" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="O843" s="2" t="s">
         <v>33</v>
@@ -61352,16 +61355,16 @@
         <v>1162</v>
       </c>
       <c r="F844" s="2" t="s">
-        <v>127</v>
+        <v>303</v>
       </c>
       <c r="G844" s="1" t="s">
-        <v>128</v>
+        <v>304</v>
       </c>
       <c r="H844" s="1" t="s">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="I844" s="1" t="s">
-        <v>129</v>
+        <v>305</v>
       </c>
       <c r="J844" s="2" t="s">
         <v>29</v>
@@ -61376,7 +61379,7 @@
         <v>31</v>
       </c>
       <c r="N844" s="2" t="s">
-        <v>480</v>
+        <v>82</v>
       </c>
       <c r="O844" s="2" t="s">
         <v>47</v>
@@ -61420,16 +61423,16 @@
         <v>1162</v>
       </c>
       <c r="F845" s="2" t="s">
-        <v>373</v>
+        <v>127</v>
       </c>
       <c r="G845" s="1" t="s">
-        <v>737</v>
+        <v>128</v>
       </c>
       <c r="H845" s="1" t="s">
-        <v>738</v>
+        <v>129</v>
       </c>
       <c r="I845" s="1" t="s">
-        <v>738</v>
+        <v>129</v>
       </c>
       <c r="J845" s="2" t="s">
         <v>29</v>
@@ -61444,10 +61447,10 @@
         <v>31</v>
       </c>
       <c r="N845" s="2" t="s">
-        <v>194</v>
+        <v>471</v>
       </c>
       <c r="O845" s="2" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="P845" s="2" t="s">
         <v>33</v>
@@ -61488,16 +61491,16 @@
         <v>1162</v>
       </c>
       <c r="F846" s="2" t="s">
-        <v>309</v>
+        <v>373</v>
       </c>
       <c r="G846" s="1" t="s">
-        <v>310</v>
+        <v>737</v>
       </c>
       <c r="H846" s="1" t="s">
-        <v>311</v>
+        <v>738</v>
       </c>
       <c r="I846" s="1" t="s">
-        <v>312</v>
+        <v>738</v>
       </c>
       <c r="J846" s="2" t="s">
         <v>29</v>
@@ -61512,7 +61515,7 @@
         <v>31</v>
       </c>
       <c r="N846" s="2" t="s">
-        <v>33</v>
+        <v>190</v>
       </c>
       <c r="O846" s="2" t="s">
         <v>33</v>
@@ -61527,7 +61530,7 @@
         <v>33</v>
       </c>
       <c r="S846" s="2" t="s">
-        <v>784</v>
+        <v>33</v>
       </c>
       <c r="T846" s="2" t="s">
         <v>33</v>
@@ -61556,16 +61559,16 @@
         <v>1162</v>
       </c>
       <c r="F847" s="2" t="s">
-        <v>163</v>
+        <v>309</v>
       </c>
       <c r="G847" s="1" t="s">
-        <v>164</v>
+        <v>310</v>
       </c>
       <c r="H847" s="1" t="s">
-        <v>165</v>
+        <v>311</v>
       </c>
       <c r="I847" s="1" t="s">
-        <v>166</v>
+        <v>312</v>
       </c>
       <c r="J847" s="2" t="s">
         <v>29</v>
@@ -61580,10 +61583,10 @@
         <v>31</v>
       </c>
       <c r="N847" s="2" t="s">
-        <v>1029</v>
+        <v>33</v>
       </c>
       <c r="O847" s="2" t="s">
-        <v>477</v>
+        <v>33</v>
       </c>
       <c r="P847" s="2" t="s">
         <v>33</v>
@@ -61595,7 +61598,7 @@
         <v>33</v>
       </c>
       <c r="S847" s="2" t="s">
-        <v>33</v>
+        <v>784</v>
       </c>
       <c r="T847" s="2" t="s">
         <v>33</v>
@@ -61624,16 +61627,16 @@
         <v>1162</v>
       </c>
       <c r="F848" s="2" t="s">
-        <v>29</v>
+        <v>163</v>
       </c>
       <c r="G848" s="1" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="H848" s="1" t="s">
-        <v>31</v>
+        <v>165</v>
       </c>
       <c r="I848" s="1" t="s">
-        <v>31</v>
+        <v>166</v>
       </c>
       <c r="J848" s="2" t="s">
         <v>29</v>
@@ -61648,19 +61651,19 @@
         <v>31</v>
       </c>
       <c r="N848" s="2" t="s">
-        <v>33</v>
+        <v>1041</v>
       </c>
       <c r="O848" s="2" t="s">
-        <v>33</v>
+        <v>530</v>
       </c>
       <c r="P848" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q848" s="2" t="s">
-        <v>1194</v>
+        <v>33</v>
       </c>
       <c r="R848" s="2" t="s">
-        <v>1195</v>
+        <v>33</v>
       </c>
       <c r="S848" s="2" t="s">
         <v>33</v>
@@ -61672,7 +61675,7 @@
         <v>34</v>
       </c>
       <c r="V848" s="2" t="s">
-        <v>1196</v>
+        <v>33</v>
       </c>
     </row>
     <row r="849">
@@ -61686,22 +61689,22 @@
         <v>22</v>
       </c>
       <c r="D849" s="2" t="s">
-        <v>1197</v>
+        <v>1194</v>
       </c>
       <c r="E849" s="2" t="s">
         <v>1162</v>
       </c>
       <c r="F849" s="2" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="G849" s="1" t="s">
-        <v>226</v>
+        <v>30</v>
       </c>
       <c r="H849" s="1" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="I849" s="1" t="s">
-        <v>227</v>
+        <v>31</v>
       </c>
       <c r="J849" s="2" t="s">
         <v>29</v>
@@ -61716,19 +61719,19 @@
         <v>31</v>
       </c>
       <c r="N849" s="2" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="O849" s="2" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="P849" s="2" t="s">
         <v>33</v>
       </c>
       <c r="Q849" s="2" t="s">
-        <v>33</v>
+        <v>1195</v>
       </c>
       <c r="R849" s="2" t="s">
-        <v>33</v>
+        <v>1196</v>
       </c>
       <c r="S849" s="2" t="s">
         <v>33</v>
@@ -61740,7 +61743,7 @@
         <v>34</v>
       </c>
       <c r="V849" s="2" t="s">
-        <v>33</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="850">
@@ -61760,16 +61763,16 @@
         <v>1162</v>
       </c>
       <c r="F850" s="2" t="s">
-        <v>105</v>
+        <v>225</v>
       </c>
       <c r="G850" s="1" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="H850" s="1" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="I850" s="1" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="J850" s="2" t="s">
         <v>29</v>
@@ -61787,7 +61790,7 @@
         <v>47</v>
       </c>
       <c r="O850" s="2" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="P850" s="2" t="s">
         <v>33</v>
@@ -61828,16 +61831,16 @@
         <v>1162</v>
       </c>
       <c r="F851" s="2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="G851" s="1" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="H851" s="1" t="s">
-        <v>27</v>
+        <v>107</v>
       </c>
       <c r="I851" s="1" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="J851" s="2" t="s">
         <v>29</v>
@@ -61896,54 +61899,122 @@
         <v>1162</v>
       </c>
       <c r="F852" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G852" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H852" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I852" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J852" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K852" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L852" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M852" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N852" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O852" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P852" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q852" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R852" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S852" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T852" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U852" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V852" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B853" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C853" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D853" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E853" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F853" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G852" s="1" t="s">
+      <c r="G853" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="H852" s="1" t="s">
+      <c r="H853" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="I852" s="1" t="s">
+      <c r="I853" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="J852" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K852" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L852" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="M852" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N852" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="O852" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="P852" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q852" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="R852" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="S852" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="T852" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="U852" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="V852" s="2" t="s">
+      <c r="J853" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K853" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L853" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M853" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N853" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="O853" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="P853" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q853" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="R853" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="S853" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="T853" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U853" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="V853" s="2" t="s">
         <v>33</v>
       </c>
     </row>
